--- a/Test Data/MasterSheet.xlsx
+++ b/Test Data/MasterSheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="585" windowWidth="14805" windowHeight="7530"/>
@@ -70,9 +70,6 @@
     <t>EmailID</t>
   </si>
   <si>
-    <t>kedartalegaonkar@gmail.com</t>
-  </si>
-  <si>
     <t>DefaultUser</t>
   </si>
   <si>
@@ -215,13 +212,16 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>dovame3422@winmails.net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +233,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,10 +308,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -326,8 +335,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -335,6 +346,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -383,7 +397,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,7 +432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -629,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,10 +702,10 @@
         <v>15</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>11</v>
@@ -706,67 +720,67 @@
         <v>17</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="T1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="V1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="Z1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="AC1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="AE1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -777,7 +791,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>8</v>
@@ -786,98 +800,99 @@
         <v>6</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>18</v>
+      <c r="M2" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="T2" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="Z2" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="AC2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="AE2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AG2" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AG2" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="AH2" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1" display="www.abc.com"/>
+    <hyperlink ref="M2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>